--- a/biology/Médecine/Hyperréflexie/Hyperréflexie.xlsx
+++ b/biology/Médecine/Hyperréflexie/Hyperréflexie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperr%C3%A9flexie</t>
+          <t>Hyperréflexie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d’une hyperréflexie des réflexes sont exagérés ou « hyperactifs ». Une hyperréflexie peut ou bien être locale ou bien généralisée. 
 Une hyperréflexie généralisée peut exister en tant que symptôme, par exemple lors d’une hyperthyroïdie, ou bien de façon autonome.
